--- a/testFile/case/patient_edge.xlsx
+++ b/testFile/case/patient_edge.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nano/代码/Jessie/python/monitorAPI/testFile/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TianJing\Documents\Jessie\Python\monitorAPI\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E12E1-7D94-43A1-88DA-AB8AD4FAD4E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="440" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sendVerifyCode" sheetId="5" r:id="rId1"/>
@@ -20,17 +21,12 @@
     <sheet name="getCityList" sheetId="3" r:id="rId6"/>
     <sheet name="getDiseasesList" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="150000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="101">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,12 +421,20 @@
     <t>2411006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正确手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,6 +449,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,12 +477,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,6 +496,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -749,229 +766,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="J14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -982,210 +1013,216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" customWidth="1"/>
-    <col min="9" max="10" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="16.125" customWidth="1"/>
+    <col min="10" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1196,222 +1233,226 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.875" style="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1490,21 +1531,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">

--- a/testFile/case/patient_edge.xlsx
+++ b/testFile/case/patient_edge.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TianJing\Documents\Jessie\Python\monitorAPI\testFile\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nano/代码/Jessie/python/APITestDemo/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E12E1-7D94-43A1-88DA-AB8AD4FAD4E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="435" windowWidth="25605" windowHeight="14505" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="sendVerifyCode" sheetId="5" r:id="rId1"/>
@@ -21,12 +20,17 @@
     <sheet name="getCityList" sheetId="3" r:id="rId6"/>
     <sheet name="getDiseasesList" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +125,6 @@
   </si>
   <si>
     <t>pageSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,18 +422,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>case_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>正确手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_note</t>
+    <rPh sb="0" eb="1">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou ji hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确手机号、验证码</t>
+    <rPh sb="0" eb="1">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhegn que</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sho ji hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan zheng ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确手机号、错误验证码</t>
+    <rPh sb="0" eb="1">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou ji hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan zheng ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确手机号、不填写验证码</t>
+    <rPh sb="0" eb="1">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng qeu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou ji hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu tian xie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan zhegn ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有token情况下退出登录</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing kuang xia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tui chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无token情况无法退出</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tui chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确token可获取用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误token无法获取用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xin x n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确token可成功修改姓名</t>
+    <rPh sb="0" eb="1">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xing ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确token可成功修改性别</t>
+    <rPh sb="0" eb="1">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xing bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确token可成功修改出生</t>
+    <rPh sb="0" eb="1">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确token可成功修改所有信息</t>
+    <rPh sb="0" eb="1">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误token不能修改信息</t>
+    <rPh sb="0" eb="1">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误手机号</t>
+    <rPh sb="0" eb="1">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou ji hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号为空</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei kogn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按医院获取城市列表</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按医生获取城市列表</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi shegn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng hsi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取常见疾病</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji bign</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取非常见疾病</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -766,117 +1090,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="J14" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.15">
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -886,124 +1216,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
+      <c r="I4" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1013,128 +1353,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="16.125" customWidth="1"/>
-    <col min="10" max="11" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="9" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,86 +1492,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1233,37 +1588,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>100</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>78</v>
@@ -1272,164 +1628,179 @@
         <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1440,22 +1811,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.875" style="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,8 +1850,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1500,8 +1876,11 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1522,6 +1901,9 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1531,21 +1913,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -1568,10 +1950,10 @@
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>22</v>
@@ -1588,11 +1970,13 @@
       <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1601,19 +1985,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
@@ -1624,10 +2008,13 @@
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1636,17 +2023,17 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>14</v>
@@ -1656,6 +2043,9 @@
       </c>
       <c r="M3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
